--- a/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
+++ b/InputData/trans/FoVObE/Fraction of Veh Owned by Entity.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Google Drive\2018.WRI-EPS2\0.Documentos trabajo modelo\eps-1.3.2-us-wipG\InputData\trans\FoVObE\MEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olea/FerOlea/0.Chamba 2018/2018.WRI-EPS2/0.Documentos trabajo modelo/eps-1.4.1-mexico_TALLER/Updates/Transport/FoVObE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{98451A7D-7BE0-1D48-B862-44E545A7BB42}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="23955" windowHeight="12270" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="23960" windowHeight="12280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="FoVObE-passengers" sheetId="11" r:id="rId3"/>
     <sheet name="FoVObE-freight" sheetId="12" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -111,13 +112,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,54 +709,54 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="20% - Énfasis1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="29" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="33" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="37" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="41" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="45" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="30" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="34" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="38" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="42" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="46" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="27" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="31" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="35" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="39" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="43" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="47" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="12" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Data_Sheet1 (2)_1" xfId="4"/>
-    <cellStyle name="Encabezado 1" xfId="8" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="28" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="32" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="36" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="40" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="44" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hed Side" xfId="3"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8"/>
-    <cellStyle name="Incorrecto" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="29" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="33" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="37" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="41" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="45" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="30" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="34" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="38" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="42" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="46" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="27" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="31" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="35" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="39" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="43" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="47" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="28" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="32" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="36" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="40" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="44" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="13" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Data_Sheet1 (2)_1" xfId="4" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="12" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="8" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hed Side" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="14" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="21" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="16" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Source Text" xfId="6"/>
-    <cellStyle name="Table Title" xfId="1"/>
-    <cellStyle name="Texto de advertencia" xfId="20" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Title-1" xfId="2"/>
-    <cellStyle name="Título" xfId="7" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="9" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="10" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Source Text" xfId="6" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Table Title" xfId="1" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Title" xfId="7" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Title-1" xfId="2" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -771,7 +772,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1090,28 +1091,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1119,36 +1118,36 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
         <v>2016</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" location="Regreso&amp;c="/>
+    <hyperlink ref="B7" r:id="rId1" location="Regreso&amp;c=" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -1156,786 +1155,786 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BE102"/>
   <sheetViews>
     <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="256" width="11.42578125" style="7"/>
-    <col min="257" max="257" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="260" max="260" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="263" max="264" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="265" max="265" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="266" max="269" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="256" width="11.5" style="7"/>
+    <col min="257" max="257" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="260" max="260" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="263" max="264" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="265" max="265" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="266" max="269" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="270" max="273" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="274" max="277" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="278" max="512" width="11.42578125" style="7"/>
-    <col min="513" max="513" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="516" max="516" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="519" max="520" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="521" max="521" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="522" max="525" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="278" max="512" width="11.5" style="7"/>
+    <col min="513" max="513" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="516" max="516" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="519" max="520" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="521" max="521" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="522" max="525" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="526" max="529" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="530" max="533" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="534" max="768" width="11.42578125" style="7"/>
-    <col min="769" max="769" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="772" max="772" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="775" max="776" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="777" max="777" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="778" max="781" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="534" max="768" width="11.5" style="7"/>
+    <col min="769" max="769" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="772" max="772" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="775" max="776" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="777" max="777" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="778" max="781" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="782" max="785" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="786" max="789" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="790" max="1024" width="11.42578125" style="7"/>
-    <col min="1025" max="1025" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1028" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1032" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1033" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1037" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="790" max="1024" width="11.5" style="7"/>
+    <col min="1025" max="1025" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1028" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1032" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1033" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1037" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="1038" max="1041" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="1042" max="1045" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1280" width="11.42578125" style="7"/>
-    <col min="1281" max="1281" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1284" max="1284" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1288" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1289" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1293" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1280" width="11.5" style="7"/>
+    <col min="1281" max="1281" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1284" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1288" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1289" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1293" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="1294" max="1297" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="1298" max="1301" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="1302" max="1536" width="11.42578125" style="7"/>
-    <col min="1537" max="1537" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1540" max="1540" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1544" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1545" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1549" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1302" max="1536" width="11.5" style="7"/>
+    <col min="1537" max="1537" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1540" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1544" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1545" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1549" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="1550" max="1553" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="1554" max="1557" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="1558" max="1792" width="11.42578125" style="7"/>
-    <col min="1793" max="1793" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="1796" max="1796" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1800" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1801" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1805" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1558" max="1792" width="11.5" style="7"/>
+    <col min="1793" max="1793" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1796" max="1796" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1800" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1801" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1805" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="1806" max="1809" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="1810" max="1813" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="1814" max="2048" width="11.42578125" style="7"/>
-    <col min="2049" max="2049" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2052" max="2052" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2056" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2057" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2061" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1814" max="2048" width="11.5" style="7"/>
+    <col min="2049" max="2049" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2052" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2056" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2057" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2061" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2062" max="2065" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="2066" max="2069" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2070" max="2304" width="11.42578125" style="7"/>
-    <col min="2305" max="2305" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2308" max="2308" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2312" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2313" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2317" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2070" max="2304" width="11.5" style="7"/>
+    <col min="2305" max="2305" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2308" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2312" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2313" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2317" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2318" max="2321" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="2322" max="2325" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2326" max="2560" width="11.42578125" style="7"/>
-    <col min="2561" max="2561" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2564" max="2564" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2568" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2569" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2573" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2326" max="2560" width="11.5" style="7"/>
+    <col min="2561" max="2561" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2564" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2568" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2569" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2573" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2574" max="2577" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="2578" max="2581" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2582" max="2816" width="11.42578125" style="7"/>
-    <col min="2817" max="2817" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2820" max="2820" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2824" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2825" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2829" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2582" max="2816" width="11.5" style="7"/>
+    <col min="2817" max="2817" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2820" max="2820" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2824" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2825" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2829" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="2830" max="2833" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="2834" max="2837" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2838" max="3072" width="11.42578125" style="7"/>
-    <col min="3073" max="3073" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3076" max="3076" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3080" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3081" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3085" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2838" max="3072" width="11.5" style="7"/>
+    <col min="3073" max="3073" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3076" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3080" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3081" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3085" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3086" max="3089" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="3090" max="3093" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="3094" max="3328" width="11.42578125" style="7"/>
-    <col min="3329" max="3329" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3332" max="3332" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3336" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3337" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3341" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3094" max="3328" width="11.5" style="7"/>
+    <col min="3329" max="3329" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3332" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3336" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3337" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3341" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3342" max="3345" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="3346" max="3349" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="3350" max="3584" width="11.42578125" style="7"/>
-    <col min="3585" max="3585" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3588" max="3588" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3592" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3593" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3597" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3350" max="3584" width="11.5" style="7"/>
+    <col min="3585" max="3585" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3588" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3592" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3593" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3597" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3598" max="3601" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="3602" max="3605" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="3606" max="3840" width="11.42578125" style="7"/>
-    <col min="3841" max="3841" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3844" max="3844" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3848" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3849" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3853" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3606" max="3840" width="11.5" style="7"/>
+    <col min="3841" max="3841" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3844" max="3844" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3848" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3849" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3853" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="3854" max="3857" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="3858" max="3861" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="3862" max="4096" width="11.42578125" style="7"/>
-    <col min="4097" max="4097" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4100" max="4100" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4104" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4105" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4109" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3862" max="4096" width="11.5" style="7"/>
+    <col min="4097" max="4097" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4100" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4104" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4105" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4109" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4110" max="4113" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="4114" max="4117" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="4118" max="4352" width="11.42578125" style="7"/>
-    <col min="4353" max="4353" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4356" max="4356" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4360" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4361" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4365" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4118" max="4352" width="11.5" style="7"/>
+    <col min="4353" max="4353" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4356" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4360" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4361" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4365" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4366" max="4369" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="4370" max="4373" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="4374" max="4608" width="11.42578125" style="7"/>
-    <col min="4609" max="4609" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4612" max="4612" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4616" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4617" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4621" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4374" max="4608" width="11.5" style="7"/>
+    <col min="4609" max="4609" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4612" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4616" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4617" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4621" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4622" max="4625" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="4626" max="4629" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="4630" max="4864" width="11.42578125" style="7"/>
-    <col min="4865" max="4865" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4868" max="4868" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4872" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4873" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4877" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4630" max="4864" width="11.5" style="7"/>
+    <col min="4865" max="4865" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4868" max="4868" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4872" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4873" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4877" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="4878" max="4881" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="4882" max="4885" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="4886" max="5120" width="11.42578125" style="7"/>
-    <col min="5121" max="5121" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5124" max="5124" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5128" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5129" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5133" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4886" max="5120" width="11.5" style="7"/>
+    <col min="5121" max="5121" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5124" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5128" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5129" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5133" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5134" max="5137" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="5138" max="5141" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5142" max="5376" width="11.42578125" style="7"/>
-    <col min="5377" max="5377" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5380" max="5380" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5384" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5385" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5389" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5142" max="5376" width="11.5" style="7"/>
+    <col min="5377" max="5377" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5380" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5384" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5385" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5389" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5390" max="5393" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="5394" max="5397" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5398" max="5632" width="11.42578125" style="7"/>
-    <col min="5633" max="5633" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5636" max="5636" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5640" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5641" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5645" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5398" max="5632" width="11.5" style="7"/>
+    <col min="5633" max="5633" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5636" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5640" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5641" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5645" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5646" max="5649" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="5650" max="5653" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5654" max="5888" width="11.42578125" style="7"/>
-    <col min="5889" max="5889" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5892" max="5892" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5896" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5897" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5901" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5654" max="5888" width="11.5" style="7"/>
+    <col min="5889" max="5889" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5892" max="5892" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5896" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5897" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5901" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="5902" max="5905" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="5906" max="5909" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="5910" max="6144" width="11.42578125" style="7"/>
-    <col min="6145" max="6145" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6148" max="6148" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6152" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6153" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6157" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5910" max="6144" width="11.5" style="7"/>
+    <col min="6145" max="6145" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6148" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6152" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6153" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6157" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6158" max="6161" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="6162" max="6165" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="6166" max="6400" width="11.42578125" style="7"/>
-    <col min="6401" max="6401" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6404" max="6404" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6408" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6409" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6413" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6166" max="6400" width="11.5" style="7"/>
+    <col min="6401" max="6401" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6404" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6408" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6409" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6413" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6414" max="6417" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="6418" max="6421" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="6422" max="6656" width="11.42578125" style="7"/>
-    <col min="6657" max="6657" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6660" max="6660" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6664" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6665" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6669" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6422" max="6656" width="11.5" style="7"/>
+    <col min="6657" max="6657" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6660" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6664" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6665" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6669" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6670" max="6673" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="6674" max="6677" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="6678" max="6912" width="11.42578125" style="7"/>
-    <col min="6913" max="6913" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6916" max="6916" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6920" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6921" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6925" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6678" max="6912" width="11.5" style="7"/>
+    <col min="6913" max="6913" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6916" max="6916" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6920" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6921" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6925" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="6926" max="6929" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="6930" max="6933" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="6934" max="7168" width="11.42578125" style="7"/>
-    <col min="7169" max="7169" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7172" max="7172" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7176" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7177" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7181" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6934" max="7168" width="11.5" style="7"/>
+    <col min="7169" max="7169" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7172" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7176" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7177" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7181" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7182" max="7185" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="7186" max="7189" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="7190" max="7424" width="11.42578125" style="7"/>
-    <col min="7425" max="7425" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7428" max="7428" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7432" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7433" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7437" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7190" max="7424" width="11.5" style="7"/>
+    <col min="7425" max="7425" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7428" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7432" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7433" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7437" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7438" max="7441" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="7442" max="7445" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="7446" max="7680" width="11.42578125" style="7"/>
-    <col min="7681" max="7681" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7684" max="7684" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7688" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7689" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7693" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7446" max="7680" width="11.5" style="7"/>
+    <col min="7681" max="7681" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7684" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7688" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7689" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7693" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7694" max="7697" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="7698" max="7701" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="7702" max="7936" width="11.42578125" style="7"/>
-    <col min="7937" max="7937" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="7940" max="7940" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7944" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7945" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7949" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7702" max="7936" width="11.5" style="7"/>
+    <col min="7937" max="7937" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7940" max="7940" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7944" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7945" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7949" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="7950" max="7953" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="7954" max="7957" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="7958" max="8192" width="11.42578125" style="7"/>
-    <col min="8193" max="8193" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8196" max="8196" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8200" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8201" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8205" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7958" max="8192" width="11.5" style="7"/>
+    <col min="8193" max="8193" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8196" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8200" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8201" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8205" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="8206" max="8209" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="8210" max="8213" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8214" max="8448" width="11.42578125" style="7"/>
-    <col min="8449" max="8449" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8452" max="8452" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8456" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8457" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8461" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8214" max="8448" width="11.5" style="7"/>
+    <col min="8449" max="8449" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8452" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8456" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8457" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8461" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="8462" max="8465" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="8466" max="8469" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8470" max="8704" width="11.42578125" style="7"/>
-    <col min="8705" max="8705" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8708" max="8708" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8712" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8713" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8717" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8470" max="8704" width="11.5" style="7"/>
+    <col min="8705" max="8705" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8708" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8712" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8713" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8717" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="8718" max="8721" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="8722" max="8725" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8726" max="8960" width="11.42578125" style="7"/>
-    <col min="8961" max="8961" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8964" max="8964" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8968" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8969" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8973" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8726" max="8960" width="11.5" style="7"/>
+    <col min="8961" max="8961" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8964" max="8964" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8968" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8969" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8973" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="8974" max="8977" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="8978" max="8981" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="8982" max="9216" width="11.42578125" style="7"/>
-    <col min="9217" max="9217" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9220" max="9220" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9224" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9225" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9229" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8982" max="9216" width="11.5" style="7"/>
+    <col min="9217" max="9217" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9220" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9224" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9225" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9229" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="9230" max="9233" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="9234" max="9237" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="9238" max="9472" width="11.42578125" style="7"/>
-    <col min="9473" max="9473" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9476" max="9476" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9480" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9481" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9485" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9238" max="9472" width="11.5" style="7"/>
+    <col min="9473" max="9473" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9476" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9480" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9481" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9485" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="9486" max="9489" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="9490" max="9493" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="9494" max="9728" width="11.42578125" style="7"/>
-    <col min="9729" max="9729" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9732" max="9732" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9736" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9737" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9741" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9494" max="9728" width="11.5" style="7"/>
+    <col min="9729" max="9729" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9732" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9736" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9737" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9741" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="9742" max="9745" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="9746" max="9749" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="9750" max="9984" width="11.42578125" style="7"/>
-    <col min="9985" max="9985" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9988" max="9988" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9992" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9993" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9997" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9750" max="9984" width="11.5" style="7"/>
+    <col min="9985" max="9985" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9988" max="9988" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9992" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9993" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9997" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="9998" max="10001" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="10002" max="10005" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="10006" max="10240" width="11.42578125" style="7"/>
-    <col min="10241" max="10241" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10244" max="10244" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10248" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10249" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10253" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10006" max="10240" width="11.5" style="7"/>
+    <col min="10241" max="10241" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10244" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10248" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10249" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10253" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="10254" max="10257" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="10258" max="10261" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="10262" max="10496" width="11.42578125" style="7"/>
-    <col min="10497" max="10497" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10500" max="10500" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10504" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10505" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10509" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10262" max="10496" width="11.5" style="7"/>
+    <col min="10497" max="10497" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10500" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10504" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10505" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10509" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="10510" max="10513" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="10514" max="10517" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="10518" max="10752" width="11.42578125" style="7"/>
-    <col min="10753" max="10753" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="10756" max="10756" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10760" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10761" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10765" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10518" max="10752" width="11.5" style="7"/>
+    <col min="10753" max="10753" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10756" max="10756" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10760" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10761" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10765" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="10766" max="10769" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="10770" max="10773" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="10774" max="11008" width="11.42578125" style="7"/>
-    <col min="11009" max="11009" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11012" max="11012" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11016" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11017" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11021" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10774" max="11008" width="11.5" style="7"/>
+    <col min="11009" max="11009" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11012" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11016" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11017" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11021" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="11022" max="11025" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="11026" max="11029" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="11030" max="11264" width="11.42578125" style="7"/>
-    <col min="11265" max="11265" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11268" max="11268" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11272" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11273" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11277" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11030" max="11264" width="11.5" style="7"/>
+    <col min="11265" max="11265" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11268" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11272" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11273" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11277" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="11278" max="11281" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="11282" max="11285" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="11286" max="11520" width="11.42578125" style="7"/>
-    <col min="11521" max="11521" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11524" max="11524" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11528" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11529" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11533" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11286" max="11520" width="11.5" style="7"/>
+    <col min="11521" max="11521" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11524" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11528" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11529" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11533" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="11534" max="11537" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="11538" max="11541" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="11542" max="11776" width="11.42578125" style="7"/>
-    <col min="11777" max="11777" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11780" max="11780" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11784" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11785" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11789" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11542" max="11776" width="11.5" style="7"/>
+    <col min="11777" max="11777" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11780" max="11780" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11784" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11785" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11789" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="11790" max="11793" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="11794" max="11797" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="11798" max="12032" width="11.42578125" style="7"/>
-    <col min="12033" max="12033" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12036" max="12036" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12040" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12041" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12045" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11798" max="12032" width="11.5" style="7"/>
+    <col min="12033" max="12033" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12036" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12040" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12041" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12045" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="12046" max="12049" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="12050" max="12053" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="12054" max="12288" width="11.42578125" style="7"/>
-    <col min="12289" max="12289" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12292" max="12292" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12296" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12297" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12301" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12054" max="12288" width="11.5" style="7"/>
+    <col min="12289" max="12289" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12292" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12296" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12297" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12301" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="12302" max="12305" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="12306" max="12309" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="12310" max="12544" width="11.42578125" style="7"/>
-    <col min="12545" max="12545" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12548" max="12548" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12552" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12553" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12557" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12310" max="12544" width="11.5" style="7"/>
+    <col min="12545" max="12545" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12548" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12552" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12553" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12557" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="12558" max="12561" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="12562" max="12565" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="12566" max="12800" width="11.42578125" style="7"/>
-    <col min="12801" max="12801" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12804" max="12804" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12808" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12809" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12813" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12566" max="12800" width="11.5" style="7"/>
+    <col min="12801" max="12801" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12804" max="12804" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12808" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12809" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12813" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="12814" max="12817" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="12818" max="12821" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="12822" max="13056" width="11.42578125" style="7"/>
-    <col min="13057" max="13057" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13060" max="13060" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13064" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13065" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13069" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12822" max="13056" width="11.5" style="7"/>
+    <col min="13057" max="13057" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13060" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13064" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13065" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13069" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="13070" max="13073" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="13074" max="13077" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="13078" max="13312" width="11.42578125" style="7"/>
-    <col min="13313" max="13313" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13316" max="13316" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13320" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13321" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13325" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13078" max="13312" width="11.5" style="7"/>
+    <col min="13313" max="13313" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13316" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13320" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13321" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13325" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="13326" max="13329" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="13330" max="13333" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="13334" max="13568" width="11.42578125" style="7"/>
-    <col min="13569" max="13569" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13572" max="13572" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13576" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13577" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13581" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13334" max="13568" width="11.5" style="7"/>
+    <col min="13569" max="13569" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13572" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13576" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13577" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13581" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="13582" max="13585" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="13586" max="13589" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="13590" max="13824" width="11.42578125" style="7"/>
-    <col min="13825" max="13825" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13828" max="13828" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13832" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13833" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13837" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13590" max="13824" width="11.5" style="7"/>
+    <col min="13825" max="13825" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13828" max="13828" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13832" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13833" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13837" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="13838" max="13841" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="13842" max="13845" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="13846" max="14080" width="11.42578125" style="7"/>
-    <col min="14081" max="14081" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14084" max="14084" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14088" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14089" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14093" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13846" max="14080" width="11.5" style="7"/>
+    <col min="14081" max="14081" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14084" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14088" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14089" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14093" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14094" max="14097" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="14098" max="14101" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="14102" max="14336" width="11.42578125" style="7"/>
-    <col min="14337" max="14337" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14340" max="14340" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14344" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14345" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14349" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14102" max="14336" width="11.5" style="7"/>
+    <col min="14337" max="14337" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14340" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14344" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14345" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14349" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14350" max="14353" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="14354" max="14357" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="14358" max="14592" width="11.42578125" style="7"/>
-    <col min="14593" max="14593" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14596" max="14596" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14600" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14601" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14605" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14358" max="14592" width="11.5" style="7"/>
+    <col min="14593" max="14593" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14596" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14600" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14601" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14605" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14606" max="14609" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="14610" max="14613" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="14614" max="14848" width="11.42578125" style="7"/>
-    <col min="14849" max="14849" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14852" max="14852" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14856" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14857" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14861" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14614" max="14848" width="11.5" style="7"/>
+    <col min="14849" max="14849" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14852" max="14852" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14856" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14857" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14861" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="14862" max="14865" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="14866" max="14869" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="14870" max="15104" width="11.42578125" style="7"/>
-    <col min="15105" max="15105" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15108" max="15108" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15112" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15113" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15117" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14870" max="15104" width="11.5" style="7"/>
+    <col min="15105" max="15105" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15108" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15112" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15113" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15117" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="15118" max="15121" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="15122" max="15125" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="15126" max="15360" width="11.42578125" style="7"/>
-    <col min="15361" max="15361" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15364" max="15364" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15368" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15369" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15373" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15126" max="15360" width="11.5" style="7"/>
+    <col min="15361" max="15361" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15364" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15368" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15369" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15373" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="15374" max="15377" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="15378" max="15381" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="15382" max="15616" width="11.42578125" style="7"/>
-    <col min="15617" max="15617" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15620" max="15620" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15624" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15625" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15629" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15382" max="15616" width="11.5" style="7"/>
+    <col min="15617" max="15617" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15620" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15624" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15625" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15629" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="15630" max="15633" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="15634" max="15637" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="15638" max="15872" width="11.42578125" style="7"/>
-    <col min="15873" max="15873" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="15876" max="15876" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15880" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15881" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15885" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15638" max="15872" width="11.5" style="7"/>
+    <col min="15873" max="15873" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15876" max="15876" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15880" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15881" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15885" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="15886" max="15889" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="15890" max="15893" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="15894" max="16128" width="11.42578125" style="7"/>
-    <col min="16129" max="16129" width="5.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="16132" max="16132" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="9.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16136" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16137" width="10.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16141" width="20.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15894" max="16128" width="11.5" style="7"/>
+    <col min="16129" max="16129" width="5.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16132" width="7.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="9.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16136" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="16137" max="16137" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16138" max="16141" width="20.5" style="7" bestFit="1" customWidth="1"/>
     <col min="16142" max="16145" width="28" style="7" bestFit="1" customWidth="1"/>
     <col min="16146" max="16149" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="16150" max="16384" width="11.42578125" style="7"/>
+    <col min="16150" max="16384" width="11.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
@@ -1952,17 +1951,17 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="8"/>
       <c r="B6" s="10" t="s">
         <v>1</v>
@@ -2026,7 +2025,7 @@
       </c>
       <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="8"/>
       <c r="B7" s="10" t="s">
         <v>1</v>
@@ -2090,7 +2089,7 @@
       </c>
       <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="10">
         <v>1980</v>
       </c>
@@ -2155,7 +2154,7 @@
         <v>275923</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="10">
         <v>1981</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>295305</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="10">
         <v>1982</v>
       </c>
@@ -2285,7 +2284,7 @@
         <v>255963</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="10">
         <v>1983</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>249216</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="10">
         <v>1984</v>
       </c>
@@ -2415,7 +2414,7 @@
         <v>246746</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="10">
         <v>1985</v>
       </c>
@@ -2480,7 +2479,7 @@
         <v>248918</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="10">
         <v>1986</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>231240</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="10">
         <v>1987</v>
       </c>
@@ -2610,7 +2609,7 @@
         <v>219647</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="10">
         <v>1988</v>
       </c>
@@ -2675,7 +2674,7 @@
         <v>216530</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="10">
         <v>1989</v>
       </c>
@@ -2740,7 +2739,7 @@
         <v>222322</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21">
       <c r="A18" s="10">
         <v>1990</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>246651</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21">
       <c r="A19" s="10">
         <v>1991</v>
       </c>
@@ -2870,7 +2869,7 @@
         <v>259133</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21">
       <c r="A20" s="10">
         <v>1992</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>271126</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21">
       <c r="A21" s="10">
         <v>1993</v>
       </c>
@@ -3000,7 +2999,7 @@
         <v>196308</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21">
       <c r="A22" s="10">
         <v>1994</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>211993</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21">
       <c r="A23" s="10">
         <v>1995</v>
       </c>
@@ -3130,7 +3129,7 @@
         <v>127353</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21">
       <c r="A24" s="10">
         <v>1996</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>175610</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21">
       <c r="A25" s="10">
         <v>1997</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>176758</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21">
       <c r="A26" s="10">
         <v>1998</v>
       </c>
@@ -3325,7 +3324,7 @@
         <v>219597</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21">
       <c r="A27" s="10">
         <v>1999</v>
       </c>
@@ -3390,7 +3389,7 @@
         <v>259204</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="10">
         <v>2000</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>288804</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="10">
         <v>2001</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>274919</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="10">
         <v>2002</v>
       </c>
@@ -3585,7 +3584,7 @@
         <v>364899</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21">
       <c r="A31" s="10">
         <v>2003</v>
       </c>
@@ -3650,7 +3649,7 @@
         <v>433348</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21">
       <c r="A32" s="10">
         <v>2004</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>511301</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21">
       <c r="A33" s="10">
         <v>2005</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>580802</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21">
       <c r="A34" s="10">
         <v>2006</v>
       </c>
@@ -3845,7 +3844,7 @@
         <v>704979</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="10">
         <v>2007</v>
       </c>
@@ -3910,7 +3909,7 @@
         <v>860401</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" s="10">
         <v>2008</v>
       </c>
@@ -3975,7 +3974,7 @@
         <v>1055585</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21">
       <c r="A37" s="10">
         <v>2009</v>
       </c>
@@ -4040,7 +4039,7 @@
         <v>1171756</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21">
       <c r="A38" s="10">
         <v>2010</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>1125797</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21">
       <c r="A39" s="10">
         <v>2011</v>
       </c>
@@ -4170,7 +4169,7 @@
         <v>1284724</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21">
       <c r="A40" s="10">
         <v>2012</v>
       </c>
@@ -4235,7 +4234,7 @@
         <v>1557118</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21">
       <c r="A41" s="10">
         <v>2013</v>
       </c>
@@ -4300,7 +4299,7 @@
         <v>1850925</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21">
       <c r="A42" s="10">
         <v>2014</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>2245899</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21">
       <c r="A43" s="10">
         <v>2015</v>
       </c>
@@ -4430,7 +4429,7 @@
         <v>2583314</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21">
       <c r="A44" s="10">
         <v>2016</v>
       </c>
@@ -4495,7 +4494,7 @@
         <v>2956565</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="16">
       <c r="A45" s="12"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13">
@@ -4563,37 +4562,37 @@
         <v>0.9897919591089156</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21">
       <c r="A46" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21">
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
     </row>
-    <row r="49" spans="18:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:57" ht="16">
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="13"/>
     </row>
-    <row r="50" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:57">
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
     </row>
-    <row r="51" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:57">
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
     </row>
-    <row r="52" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="52" spans="18:57">
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
     </row>
-    <row r="53" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="53" spans="18:57">
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
     </row>
-    <row r="54" spans="18:57" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="18:57" ht="16">
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="W54" s="13"/>
@@ -4632,7 +4631,7 @@
       <c r="BD54" s="13"/>
       <c r="BE54" s="13"/>
     </row>
-    <row r="55" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="55" spans="18:57">
       <c r="R55" s="11"/>
       <c r="S55" s="14"/>
       <c r="V55" s="15"/>
@@ -4672,241 +4671,241 @@
       <c r="BD55" s="15"/>
       <c r="BE55" s="15"/>
     </row>
-    <row r="56" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="56" spans="18:57">
       <c r="R56" s="11"/>
       <c r="S56" s="14"/>
       <c r="V56" s="15"/>
     </row>
-    <row r="57" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="57" spans="18:57">
       <c r="R57" s="11"/>
       <c r="S57" s="14"/>
       <c r="V57" s="15"/>
     </row>
-    <row r="58" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="58" spans="18:57">
       <c r="R58" s="11"/>
       <c r="S58" s="14"/>
       <c r="V58" s="15"/>
     </row>
-    <row r="59" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="59" spans="18:57">
       <c r="R59" s="11"/>
       <c r="S59" s="14"/>
       <c r="V59" s="15"/>
     </row>
-    <row r="60" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="60" spans="18:57">
       <c r="R60" s="11"/>
       <c r="S60" s="14"/>
       <c r="V60" s="15"/>
     </row>
-    <row r="61" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="61" spans="18:57">
       <c r="R61" s="11"/>
       <c r="S61" s="14"/>
       <c r="V61" s="15"/>
     </row>
-    <row r="62" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="62" spans="18:57">
       <c r="R62" s="11"/>
       <c r="S62" s="14"/>
       <c r="V62" s="15"/>
     </row>
-    <row r="63" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="63" spans="18:57">
       <c r="R63" s="11"/>
       <c r="S63" s="14"/>
       <c r="V63" s="15"/>
     </row>
-    <row r="64" spans="18:57" x14ac:dyDescent="0.25">
+    <row r="64" spans="18:57">
       <c r="R64" s="11"/>
       <c r="S64" s="14"/>
       <c r="V64" s="15"/>
     </row>
-    <row r="65" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="18:22">
       <c r="R65" s="11"/>
       <c r="S65" s="14"/>
       <c r="V65" s="15"/>
     </row>
-    <row r="66" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="18:22">
       <c r="R66" s="11"/>
       <c r="S66" s="14"/>
       <c r="V66" s="15"/>
     </row>
-    <row r="67" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="18:22">
       <c r="R67" s="11"/>
       <c r="S67" s="14"/>
       <c r="V67" s="15"/>
     </row>
-    <row r="68" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="18:22">
       <c r="R68" s="11"/>
       <c r="S68" s="14"/>
       <c r="V68" s="15"/>
     </row>
-    <row r="69" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="18:22">
       <c r="R69" s="11"/>
       <c r="S69" s="14"/>
       <c r="V69" s="15"/>
     </row>
-    <row r="70" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="18:22">
       <c r="R70" s="11"/>
       <c r="S70" s="14"/>
       <c r="V70" s="15"/>
     </row>
-    <row r="71" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="18:22">
       <c r="R71" s="11"/>
       <c r="S71" s="14"/>
       <c r="V71" s="15"/>
     </row>
-    <row r="72" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="18:22">
       <c r="R72" s="11"/>
       <c r="S72" s="14"/>
       <c r="V72" s="15"/>
     </row>
-    <row r="73" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="18:22">
       <c r="R73" s="11"/>
       <c r="S73" s="14"/>
       <c r="V73" s="15"/>
     </row>
-    <row r="74" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="18:22">
       <c r="R74" s="11"/>
       <c r="S74" s="14"/>
       <c r="V74" s="15"/>
     </row>
-    <row r="75" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="18:22">
       <c r="R75" s="11"/>
       <c r="S75" s="14"/>
       <c r="V75" s="15"/>
     </row>
-    <row r="76" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="18:22">
       <c r="R76" s="11"/>
       <c r="S76" s="14"/>
       <c r="V76" s="15"/>
     </row>
-    <row r="77" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="18:22">
       <c r="R77" s="11"/>
       <c r="S77" s="14"/>
       <c r="V77" s="15"/>
     </row>
-    <row r="78" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="18:22">
       <c r="R78" s="11"/>
       <c r="S78" s="14"/>
       <c r="V78" s="15"/>
     </row>
-    <row r="79" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="18:22">
       <c r="R79" s="11"/>
       <c r="S79" s="14"/>
       <c r="V79" s="15"/>
     </row>
-    <row r="80" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="18:22">
       <c r="R80" s="11"/>
       <c r="S80" s="14"/>
       <c r="V80" s="15"/>
     </row>
-    <row r="81" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="81" spans="18:22">
       <c r="R81" s="11"/>
       <c r="S81" s="14"/>
       <c r="V81" s="15"/>
     </row>
-    <row r="82" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="82" spans="18:22">
       <c r="R82" s="11"/>
       <c r="S82" s="14"/>
       <c r="V82" s="15"/>
     </row>
-    <row r="83" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="83" spans="18:22">
       <c r="R83" s="11"/>
       <c r="S83" s="14"/>
       <c r="V83" s="15"/>
     </row>
-    <row r="84" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="84" spans="18:22">
       <c r="R84" s="11"/>
       <c r="S84" s="14"/>
       <c r="V84" s="15"/>
     </row>
-    <row r="85" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="85" spans="18:22">
       <c r="R85" s="11"/>
       <c r="S85" s="14"/>
       <c r="V85" s="15"/>
     </row>
-    <row r="86" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="86" spans="18:22">
       <c r="R86" s="11"/>
       <c r="S86" s="14"/>
       <c r="V86" s="15"/>
     </row>
-    <row r="87" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="87" spans="18:22">
       <c r="R87" s="11"/>
       <c r="S87" s="14"/>
       <c r="V87" s="15"/>
     </row>
-    <row r="88" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="88" spans="18:22">
       <c r="R88" s="11"/>
       <c r="S88" s="14"/>
       <c r="V88" s="15"/>
     </row>
-    <row r="89" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="89" spans="18:22">
       <c r="R89" s="11"/>
       <c r="S89" s="14"/>
       <c r="V89" s="15"/>
     </row>
-    <row r="90" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="90" spans="18:22">
       <c r="R90" s="11"/>
     </row>
-    <row r="91" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="91" spans="18:22">
       <c r="R91" s="11"/>
     </row>
-    <row r="92" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="92" spans="18:22">
       <c r="R92" s="11"/>
     </row>
-    <row r="93" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="93" spans="18:22">
       <c r="R93" s="11"/>
     </row>
-    <row r="94" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="94" spans="18:22">
       <c r="R94" s="11"/>
     </row>
-    <row r="95" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="95" spans="18:22">
       <c r="R95" s="11"/>
     </row>
-    <row r="96" spans="18:22" x14ac:dyDescent="0.25">
+    <row r="96" spans="18:22">
       <c r="R96" s="11"/>
     </row>
-    <row r="97" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="18:18">
       <c r="R97" s="11"/>
     </row>
-    <row r="98" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="18:18">
       <c r="R98" s="11"/>
     </row>
-    <row r="99" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="18:18">
       <c r="R99" s="11"/>
     </row>
-    <row r="100" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="18:18">
       <c r="R100" s="11"/>
     </row>
-    <row r="101" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="18:18">
       <c r="R101" s="11"/>
     </row>
-    <row r="102" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="18:18">
       <c r="R102" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1" location="Regreso&amp;c="/>
+    <hyperlink ref="C1" r:id="rId1" location="Regreso&amp;c=" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -4920,7 +4919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>0.97707387873409135</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4954,7 +4953,7 @@
         <v>0.55943177557817192</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4968,21 +4967,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
         <v>0</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5019,23 +5018,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="4" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="4" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -5063,7 +5062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>1.4473305994450425E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -5122,7 +5121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
